--- a/data/E-Wallet-Service/notification-service_structure.xlsx
+++ b/data/E-Wallet-Service/notification-service_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="83">
   <si>
     <t>Class Name</t>
   </si>
@@ -165,57 +165,57 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>javaMailSender</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
     <t>simpleMailMessage</t>
   </si>
   <si>
-    <t>private</t>
-  </si>
-  <si>
-    <t>javaMailSender</t>
-  </si>
-  <si>
-    <t>subject</t>
-  </si>
-  <si>
     <t>objectMapper</t>
   </si>
   <si>
-    <t>username</t>
-  </si>
-  <si>
     <t>mailSMTPStartTLSEnable</t>
   </si>
   <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>mailDebug</t>
+  </si>
+  <si>
     <t>port</t>
   </si>
   <si>
-    <t>host</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>mailDebug</t>
-  </si>
-  <si>
     <t>KAFKA_PRODUCER_SEND_EMAIL_GROUP_ID</t>
   </si>
   <si>
     <t>KAFKA_PRODUCER_SEND_EMAIL_TOPIC</t>
   </si>
   <si>
+    <t>MAIL_SMTP_START_TLS_ENABLE</t>
+  </si>
+  <si>
+    <t>MAIL_DEBUG</t>
+  </si>
+  <si>
+    <t>EMAIL_MESSAGE</t>
+  </si>
+  <si>
     <t>EMAIL_TO_USER</t>
   </si>
   <si>
-    <t>MAIL_SMTP_START_TLS_ENABLE</t>
-  </si>
-  <si>
-    <t>MAIL_DEBUG</t>
-  </si>
-  <si>
-    <t>EMAIL_MESSAGE</t>
-  </si>
-  <si>
     <t>Source Class Name</t>
   </si>
   <si>
@@ -265,9 +265,6 @@
   </si>
   <si>
     <t>4</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>8</t>
@@ -1316,7 +1313,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1338,7 +1335,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>81</v>
@@ -1346,10 +1343,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>82</v>
@@ -1360,10 +1357,10 @@
         <v>26</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
@@ -1371,76 +1368,21 @@
         <v>26</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>79</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1508,7 +1450,7 @@
         <v>48</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -1550,7 +1492,7 @@
         <v>48</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
@@ -1564,7 +1506,7 @@
         <v>48</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -1586,7 +1528,7 @@
         <v>26</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>48</v>
@@ -1606,7 +1548,7 @@
         <v>48</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -1648,7 +1590,7 @@
         <v>48</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">

--- a/data/E-Wallet-Service/notification-service_structure.xlsx
+++ b/data/E-Wallet-Service/notification-service_structure.xlsx
@@ -165,55 +165,55 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>simpleMailMessage</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>javaMailSender</t>
+  </si>
+  <si>
     <t>subject</t>
   </si>
   <si>
-    <t>private</t>
-  </si>
-  <si>
-    <t>javaMailSender</t>
-  </si>
-  <si>
     <t>username</t>
   </si>
   <si>
-    <t>simpleMailMessage</t>
-  </si>
-  <si>
     <t>objectMapper</t>
   </si>
   <si>
+    <t>mailDebug</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
     <t>mailSMTPStartTLSEnable</t>
   </si>
   <si>
-    <t>host</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>mailDebug</t>
-  </si>
-  <si>
     <t>port</t>
   </si>
   <si>
+    <t>KAFKA_PRODUCER_SEND_EMAIL_TOPIC</t>
+  </si>
+  <si>
     <t>KAFKA_PRODUCER_SEND_EMAIL_GROUP_ID</t>
   </si>
   <si>
-    <t>KAFKA_PRODUCER_SEND_EMAIL_TOPIC</t>
+    <t>MAIL_DEBUG</t>
   </si>
   <si>
     <t>MAIL_SMTP_START_TLS_ENABLE</t>
   </si>
   <si>
-    <t>MAIL_DEBUG</t>
+    <t>EMAIL_TO_USER</t>
   </si>
   <si>
     <t>EMAIL_MESSAGE</t>
-  </si>
-  <si>
-    <t>EMAIL_TO_USER</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -1450,7 +1450,7 @@
         <v>48</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
@@ -1492,7 +1492,7 @@
         <v>48</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -1528,7 +1528,7 @@
         <v>26</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>48</v>
@@ -1542,7 +1542,7 @@
         <v>26</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>48</v>
@@ -1556,7 +1556,7 @@
         <v>26</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>48</v>
@@ -1570,13 +1570,13 @@
         <v>26</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>48</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -1584,13 +1584,13 @@
         <v>26</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>48</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
